--- a/GoalSeekAndSolver/HW3_data.xlsx
+++ b/GoalSeekAndSolver/HW3_data.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jak27277\Documents\PVCC-EGR122-Inventor\GoalSeekAndSolver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobka\Documents\PVCC-EGR122-Inventor\GoalSeekAndSolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB7126-AB02-40D2-97E7-C08327434447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12290"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <t>T (</t>
@@ -98,11 +107,17 @@
   <si>
     <t>Guess</t>
   </si>
+  <si>
+    <t>Solution(s)</t>
+  </si>
+  <si>
+    <t>x^</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -172,12 +187,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="1" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -501,13 +516,16 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -526,15 +544,21 @@
       </c>
       <c r="K2">
         <f>D2*$B2^D$6+E2*$B2^E$6+F2*$B2^F$6+G2*$B2^G$6+H2*$B2^H$6</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3384</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-0.28079999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -552,16 +576,25 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">D3*$B3^D$6+E3*$B3^E$6+F3*$B3^F$6+G3*$B3^G$6+H3*$B3^H$6</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K3:K5" si="0">D3*$B3^D$6+E3*$B3^E$6+F3*$B3^F$6+G3*$B3^G$6+H3*$B3^H$6</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>-3</v>
+      </c>
+      <c r="N3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -577,15 +610,21 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="L4">
+        <v>-2</v>
+      </c>
+      <c r="M4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-1.4143337548638764</v>
       </c>
       <c r="F5">
         <v>-2</v>
@@ -595,10 +634,22 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-4.8083125504527757E-4</v>
+      </c>
+      <c r="L5">
+        <v>1.4141999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>-1.4141999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
       <c r="D6">
         <v>-1</v>
       </c>
@@ -627,20 +678,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -656,7 +707,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -664,7 +715,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -672,7 +723,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -680,7 +731,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -688,7 +739,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
@@ -696,7 +747,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17</v>
       </c>
@@ -704,7 +755,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -712,7 +763,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19</v>
       </c>
@@ -720,7 +771,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -728,7 +779,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -736,7 +787,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>22</v>
       </c>
@@ -744,7 +795,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>23</v>
       </c>
@@ -752,7 +803,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24</v>
       </c>
@@ -760,7 +811,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>25</v>
       </c>
@@ -768,7 +819,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26</v>
       </c>
@@ -776,7 +827,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>27</v>
       </c>
@@ -784,7 +835,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28</v>
       </c>
@@ -792,7 +843,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -800,7 +851,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -808,7 +859,7 @@
         <v>31.82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>35</v>
       </c>
@@ -816,7 +867,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>40</v>
       </c>
@@ -824,7 +875,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45</v>
       </c>
@@ -832,7 +883,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>50</v>
       </c>
@@ -840,7 +891,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>55</v>
       </c>
@@ -848,7 +899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>60</v>
       </c>
@@ -856,7 +907,7 @@
         <v>149.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>65</v>
       </c>
@@ -864,7 +915,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>70</v>
       </c>
@@ -872,7 +923,7 @@
         <v>233.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>80</v>
       </c>
@@ -880,7 +931,7 @@
         <v>355.1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>90</v>
       </c>
@@ -888,7 +939,7 @@
         <v>525.79999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>92</v>
       </c>
@@ -896,7 +947,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>94</v>
       </c>
@@ -904,7 +955,7 @@
         <v>610.9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>96</v>
       </c>
@@ -912,7 +963,7 @@
         <v>657.6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>98</v>
       </c>
@@ -920,7 +971,7 @@
         <v>707.3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>100</v>
       </c>
@@ -928,7 +979,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>102</v>
       </c>
@@ -936,7 +987,7 @@
         <v>815.9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>104</v>
       </c>
@@ -944,7 +995,7 @@
         <v>875.1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>106</v>
       </c>
@@ -952,7 +1003,7 @@
         <v>937.9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>108</v>
       </c>
@@ -960,7 +1011,7 @@
         <v>1004.4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>110</v>
       </c>
@@ -968,7 +1019,7 @@
         <v>1074.5999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>150</v>
       </c>
@@ -976,7 +1027,7 @@
         <v>3570.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>200</v>
       </c>
